--- a/general/Simulator/indices.xlsx
+++ b/general/Simulator/indices.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tamir\Personal\master\Master_git\Master\Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tamir\תואר שני\master\Master_git\Master\general\Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D867A02-AD6E-45B8-8736-B71C62C13097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +26,66 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tamir Mhabary</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{B02A2C92-6ED8-4F59-9A7C-AE2B923EAAD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tamir Mhabary:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with u0: Order independent </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>manipulability -  fix the cases of a combination of both translating and rotating joints</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tamir Mhabary</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>index</t>
   </si>
@@ -177,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,6 +680,39 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -675,9 +764,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -689,27 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,1460 +798,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>36420</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>73958</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2249582" cy="766172"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5437655" y="4141693"/>
-              <a:ext cx="2249582" cy="766172"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑟</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>=</m:t>
-                        </m:r>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>min</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>⁡(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑟</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>) ;</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑟</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜇</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:sSup>
-                        <m:sSupPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1400" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSupPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1400" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝐽</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sup>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1400" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑖</m:t>
-                          </m:r>
-                        </m:sup>
-                      </m:sSup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜇</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                    </m:den>
-                  </m:f>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>       </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝜇</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>(</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐽</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>)≠0</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5437655" y="4141693"/>
-              <a:ext cx="2249582" cy="766172"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝑟=min⁡(𝑟〗_𝑖) ;</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 𝑟_𝑖=(𝜇(𝐽^𝑖))/(𝜇(𝐽))</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>       </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜇(𝐽)≠0</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2420021" cy="854401"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7912475" y="4267759"/>
-              <a:ext cx="2420021" cy="854401"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="l"/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝜇</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> :</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑚𝑎𝑛𝑖𝑝𝑢𝑙𝑎𝑏𝑖𝑙𝑖𝑡𝑦</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑖𝑛𝑑𝑒𝑥</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>  </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="l"/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>  </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐽</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=[</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, …, </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>−1</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> ,  </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> ,  </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>+1</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, …, </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑛</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>]</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=[</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, …, </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>−1</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> ,  </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>+1</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1400" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, …, </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐽</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1400" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑛</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>]</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0"/>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7912475" y="4267759"/>
-              <a:ext cx="2420021" cy="854401"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜇 :𝑚𝑎𝑛𝑖𝑝𝑢𝑙𝑎𝑏𝑖𝑙𝑖𝑡𝑦 𝑖𝑛𝑑𝑒𝑥  </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  𝐽=[𝐽_1, …, 𝐽_(𝑖−1)  ,  𝐽_𝑖  ,  𝐽_(𝑖+1), …, 𝐽_𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>]</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐽^𝑖=[𝐽_1, …, 𝐽_(𝑖−1)  ,  𝐽_(𝑖+1), …, 𝐽_𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>]</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0"/>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>591669</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>505384</xdr:rowOff>
@@ -2196,12 +807,18 @@
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32992F2D-30D9-488C-95DA-548EEDA15DC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5992904" y="1110502"/>
+              <a:off x="5982819" y="1114984"/>
               <a:ext cx="1481419" cy="480733"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2361,12 +978,18 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32992F2D-30D9-488C-95DA-548EEDA15DC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5992904" y="1110502"/>
+              <a:off x="5982819" y="1114984"/>
               <a:ext cx="1481419" cy="480733"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2456,286 +1079,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>391643</xdr:colOff>
+      <xdr:colOff>11205</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>175368</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1614209" cy="628650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="TextBox 12"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5792878" y="2113986"/>
-              <a:ext cx="1614209" cy="628650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝐿𝐶𝐼</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>= </m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:d>
-                          <m:dPr>
-                            <m:begChr m:val="‖"/>
-                            <m:endChr m:val="‖"/>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1400" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1400" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐽</m:t>
-                            </m:r>
-                          </m:e>
-                        </m:d>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∗</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:begChr m:val="‖"/>
-                            <m:endChr m:val="‖"/>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1400" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSup>
-                              <m:sSupPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1400" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSupPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1400" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝐽</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sup>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1400" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>−1</m:t>
-                                </m:r>
-                              </m:sup>
-                            </m:sSup>
-                          </m:e>
-                        </m:d>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="TextBox 12"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5792878" y="2113986"/>
-              <a:ext cx="1614209" cy="628650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐿𝐶𝐼=  1/(‖𝐽‖∗‖𝐽^(−1) ‖ )</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>4</xdr:row>
       <xdr:rowOff>142311</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2476500" cy="1370480"/>
@@ -2743,12 +1088,18 @@
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="TextBox 17"/>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B60601-F260-4635-9A55-6E69860F8ECC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5412440" y="3156693"/>
+              <a:off x="5402355" y="3161736"/>
               <a:ext cx="2476500" cy="1370480"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2799,7 +1150,51 @@
                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>=0.5∗</m:t>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>0</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>.</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>5</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∗</m:t>
                   </m:r>
                   <m:sSup>
                     <m:sSupPr>
@@ -3315,12 +1710,18 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="TextBox 17"/>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B60601-F260-4635-9A55-6E69860F8ECC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5412440" y="3156693"/>
+              <a:off x="5402355" y="3161736"/>
               <a:ext cx="2476500" cy="1370480"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3414,7 +1815,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23532</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>272303</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2512163" cy="730072"/>
@@ -3422,12 +1823,18 @@
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="TextBox 18"/>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F964B1E3-E13B-4755-9092-9CF936EE64A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7878856" y="3286685"/>
+              <a:off x="7872132" y="3291728"/>
               <a:ext cx="2512163" cy="730072"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3499,7 +1906,51 @@
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>=0.5 ∗(</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>5</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> ∗(</m:t>
                     </m:r>
                     <m:sSub>
                       <m:sSubPr>
@@ -3808,6 +2259,3399 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F964B1E3-E13B-4755-9092-9CF936EE64A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7872132" y="3291728"/>
+              <a:ext cx="2512163" cy="730072"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃 ̅=0.5 ∗(𝜃_𝑚𝑎𝑥+ 𝜃_𝑚𝑖𝑛)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1600" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃_𝑚𝑎𝑥  &amp; 𝜃_𝑚𝑖𝑛  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑗𝑜𝑖𝑛𝑡 𝑙𝑖𝑚𝑖𝑡𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>36420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>73958</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2249582" cy="766172"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5437655" y="4141693"/>
+              <a:ext cx="2249582" cy="766172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>min</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>⁡(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>) ;</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑟</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝜇</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1400" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1400" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐽</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1400" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝜇</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>       </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜇</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐽</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)≠</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>0</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5437655" y="4141693"/>
+              <a:ext cx="2249582" cy="766172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑟=min⁡(𝑟〗_𝑖) ;</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑟_𝑖=(𝜇(𝐽^𝑖))/(𝜇(𝐽))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>       </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜇(𝐽)≠0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2420021" cy="854401"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7912475" y="4267759"/>
+              <a:ext cx="2420021" cy="854401"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝜇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> :</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑎𝑛𝑖𝑝𝑢𝑙𝑎𝑏𝑖𝑙𝑖𝑡𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑛𝑑𝑒𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>  </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>  </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐽</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=[</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, …, </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> ,  </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> ,  </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, …, </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑛</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=[</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, …, </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> ,  </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, …, </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐽</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑛</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7912475" y="4267759"/>
+              <a:ext cx="2420021" cy="854401"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜇 :𝑚𝑎𝑛𝑖𝑝𝑢𝑙𝑎𝑏𝑖𝑙𝑖𝑡𝑦 𝑖𝑛𝑑𝑒𝑥  </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  𝐽=[𝐽_1, …, 𝐽_(𝑖−1)  ,  𝐽_𝑖  ,  𝐽_(𝑖+1), …, 𝐽_𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐽^𝑖=[𝐽_1, …, 𝐽_(𝑖−1)  ,  𝐽_(𝑖+1), …, 𝐽_𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>591669</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>505384</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1481419" cy="480733"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5992904" y="1110502"/>
+              <a:ext cx="1481419" cy="480733"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="|"/>
+                            <m:endChr m:val="|"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐽</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1800" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1800" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐽</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1800" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑇</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5992904" y="1110502"/>
+              <a:ext cx="1481419" cy="480733"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>= √(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐽∗𝐽^𝑇 | </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>391643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175368</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1614209" cy="628650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5792878" y="2113986"/>
+              <a:ext cx="1614209" cy="628650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐿𝐶𝐼</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="‖"/>
+                            <m:endChr m:val="‖"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐽</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="‖"/>
+                            <m:endChr m:val="‖"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐽</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5792878" y="2113986"/>
+              <a:ext cx="1614209" cy="628650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐿𝐶𝐼=  1/(‖𝐽‖∗‖𝐽^(−1) ‖ )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142311</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2476500" cy="1370480"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5412440" y="3156693"/>
+              <a:ext cx="2476500" cy="1370480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑧</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>0</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>.</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>5</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∗</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1600" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1600" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1600" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜃</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1600" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:acc>
+                            <m:accPr>
+                              <m:chr m:val="̅"/>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1600" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:accPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1600" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝜃</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:acc>
+                        </m:e>
+                      </m:d>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1600" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑇</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∗</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>m</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>m=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="["/>
+                      <m:endChr m:val="]"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1600" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:m>
+                        <m:mPr>
+                          <m:mcs>
+                            <m:mc>
+                              <m:mcPr>
+                                <m:count m:val="3"/>
+                                <m:mcJc m:val="center"/>
+                              </m:mcPr>
+                            </m:mc>
+                          </m:mcs>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1600" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:mPr>
+                        <m:mr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜃</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:acc>
+                                  <m:accPr>
+                                    <m:chr m:val="̅"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1600" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:accPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1600" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜃</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:acc>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>⋯</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>0</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>⋮</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>⋱</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>⋮</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>0</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>⋯</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜃</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:acc>
+                                  <m:accPr>
+                                    <m:chr m:val="̅"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1600" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:accPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1600" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜃</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:acc>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:mr>
+                      </m:m>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5412440" y="3156693"/>
+              <a:ext cx="2476500" cy="1370480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑧=0.5∗(𝜃−𝜃 ̅ )^𝑇∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>m</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>m=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>[■8(𝜃_1−𝜃 ̅_1&amp;⋯&amp;0@⋮&amp;⋱&amp;⋮@0&amp;⋯&amp;𝜃_𝑛−𝜃 ̅_𝑛 )]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23532</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>272303</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2512163" cy="730072"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7878856" y="3286685"/>
+              <a:ext cx="2512163" cy="730072"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>5</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> ∗(</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑎𝑥</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+ </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑖𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1600" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1600" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑎𝑥</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> &amp; </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑖𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑗𝑜𝑖𝑛𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑙𝑖𝑚𝑖𝑡𝑠</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1600" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
@@ -3934,7 +5778,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="TextBox 20"/>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4191,7 +6041,18 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>−1</m:t>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
                             </m:r>
                           </m:sup>
                         </m:sSup>
@@ -4601,11 +6462,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA930057-84C6-4F3E-9149-62CD6EA05C31}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="70.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="147.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35"/>
+      <c r="C4" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="48"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -4653,10 +6786,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:13" ht="105" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="43" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -4681,8 +6814,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="23" t="s">
         <v>14</v>
       </c>
@@ -4702,22 +6835,22 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="12">
         <v>0.5</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="33" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="2"/>
@@ -4726,26 +6859,26 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -4767,15 +6900,15 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="37" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="3">
@@ -4784,7 +6917,7 @@
       <c r="H8" s="4">
         <v>2</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="39" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="2"/>
@@ -4792,16 +6925,16 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="34" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="29"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -4907,7 +7040,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4922,12 +7055,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G9:H9"/>
@@ -4938,6 +7065,12 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
